--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         <v>45953</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>44522</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>46010.45447916666</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44379</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44272</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45989</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45021</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>46038.67769675926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45840</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45331</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>45604</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45987</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>45246</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44643.38490740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44753</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44319</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>45299</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45736</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45852.5469212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>45987.35875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45989</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>45989.65462962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>45215</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44783</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44593</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44862.31013888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45827.59738425926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45743.58409722222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>45950.83359953704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45609.44461805555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45539.37905092593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44244</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>45995.74444444444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>46038.64835648148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>45387.42296296296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45387.54642361111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45348</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44755</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44237</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>45054</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>45574.59789351852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44285</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45796.42209490741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45820.69287037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>45835.58074074074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>45835.59478009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44740</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>45945.41712962963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44834</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44435</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>45987.35973379629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>46038.65719907408</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>44939</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>46010.46091435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>46010.45872685185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45112.61451388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>45989.65396990741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>45508</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44958</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>45055</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>45447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>45726</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45631.50894675926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>45181.49559027778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>45623.58190972222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44251</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44334</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44378.62756944444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>44266.70232638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44274</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44295</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44536</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44491</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44509</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44606</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44378.54952546296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>44272.55052083333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44368.65681712963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44830.33280092593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44404</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44687</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44656</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44656</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44676</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44267</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44285</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44673</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44886.52833333334</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44614.60990740741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44538</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44285</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44343.5619212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44534.80712962963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44347</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44461.92744212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44340</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44566</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44386</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44643</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44511</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44357.75265046296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44621</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44434</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>44706</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44487</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44238</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44505</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44601</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44753</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44764.51827546296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44398</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44522.56349537037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44839</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44781</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44693</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44827.3940625</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44378</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44648</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>44345</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>44345.33282407407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>44311</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>44616.59946759259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>44670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44498</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44483</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44868</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44684</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44348.45107638889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44592</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44595</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44638</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45078.48994212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44983.93344907407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45369</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45335.4531712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>45635.45157407408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44990.88512731482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44990.90357638889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>45257.374375</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44941</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45635.44899305556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45294</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45720</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45007.43729166667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44504</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>45769.40133101852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>45642</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>45251</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45542.31359953704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45599.60541666667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45191</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44539.62481481482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45030.72627314815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45539.3822337963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>45539.38329861111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>45596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44852.39063657408</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>44814</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45219</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45386.38728009259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45665.60148148148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45162.62861111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45239.44811342593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45580.70377314815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45162.61837962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45560</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45331.44145833333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44539.63009259259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45372</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44649.6965162037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45224.51471064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45377</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45387.46482638889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45803.47803240741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45294.61858796296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45189</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45803.38447916666</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>45609.49157407408</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45187</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45623.61278935185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45642</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>45700.66429398148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45888.34467592592</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44659.63753472222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44580</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44649</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>45889.70388888889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>45239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>45581.84538194445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45890.34752314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45812.35736111111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45812.41869212963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45812.42856481481</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44664</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45812.42293981482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45895.4531712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45895.46060185185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45593.47466435185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>44746.41938657407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>45664.52034722222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>45818.30459490741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>45229</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>44342</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45575</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>45901.3549537037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>45027.6433912037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>45820.70626157407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45902.36149305556</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45820.66532407407</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45609.43180555556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45609.44553240741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>45824.5044212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>45258.38157407408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45470</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44347</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>45229</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>45825.55261574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>45257.40833333333</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>45723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>45824.43502314815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>45681</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>45004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>44602.48082175926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>45631.43864583333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>45004</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>45013</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44539.61571759259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>44582</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>45429.37775462963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>45831.38224537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>45918.61577546296</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>45831.57280092593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44942</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>45918.47043981482</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>45434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>45434.57969907407</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>45300.51892361111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>45609.48451388889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>45635.55555555555</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>45832.8252199074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>45832.43225694444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>45832.83341435185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44811</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45330</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>45832.84313657408</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>45632</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>45832</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>45609</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44257</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>45685</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44944.64704861111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>45672</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>45835.56965277778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>45835.57407407407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45835.58880787037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>45632</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>45681</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>45331</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>45839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>45838.36179398148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>45422</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45754.44658564815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45331</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>44895.71835648148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45840.6003587963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45553</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45216</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45216.73533564815</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45373</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44345</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45935.80164351852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>45342.85280092592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45247</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45247</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44235</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45705</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45114</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>45397.55104166667</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>45544</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>44342</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>45944</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45593.49899305555</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45390.59277777778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44595.3353587963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>45948.450625</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>45852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>45162.35502314815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>45948.45704861111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>45258</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>45820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>45040</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>45859.46859953704</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45597.37265046296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45952.84231481481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45952.49476851852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45510.65754629629</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45952.49300925926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>45952.51270833334</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>45622.42097222222</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45869.41929398148</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>45869.41387731482</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44609</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>45488.48340277778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>45831</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>45771.7062037037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>45953.9559837963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45702</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>45959.6444675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44671</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>45098</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>45386.83142361111</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>45825</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>45959.63440972222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>45959.41769675926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>45959.43827546296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45748</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45030.72472222222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45694.57181712963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>45219</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>45959.42025462963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>45635.56321759259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>45960.61763888889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23325,7 +23325,7 @@
         <v>45960.62042824074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45334.49104166667</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45964.58512731481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45965.59295138889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>45119.59789351852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23677,7 +23677,7 @@
         <v>44944.39105324074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         <v>45331.4187962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>45229</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44990.89752314815</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>45715.63409722222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>45882.42570601852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>45330</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>45972.57893518519</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>45562.41854166667</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>45972.58171296296</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>45973.37163194444</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>44734</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>45672</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>45973.36508101852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44539</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45589.66474537037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45560</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>46021.4546412037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>46021.45914351852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45763.43422453704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45131</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45162</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45432</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45980.6446875</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45013.34895833334</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45229</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45012</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>44586.46921296296</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45539.38146990741</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45985.38037037037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45609.58422453704</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44244</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>45743.5853125</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>45390.38626157407</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>45987.35519675926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44958</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44807.49150462963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45986.40208333333</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45077.41672453703</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>45265</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45989.30467592592</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45636.68505787037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>45989.30920138889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44987</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>45114</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45027</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45988.52015046297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>46031.30899305556</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45165</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>44861</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45359.37298611111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45992.75820601852</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45993.42108796296</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45530</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44245</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45194.49594907407</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45992.74891203704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45992.78351851852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45120</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45992.76758101852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45992.7803125</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45993.41934027777</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44750</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>44750</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45393.46980324074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>44956.6655787037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45995</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45230.47266203703</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45197.72777777778</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>44972.7762962963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45995.72620370371</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>46036.43479166667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45580.91502314815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>45995.55927083334</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44897</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45995.73722222223</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>46038.6202662037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28121,7 +28121,7 @@
         <v>45708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45348</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>45632</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>44539</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>44539</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>44539</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>46038.73467592592</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45996.64050925926</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>46041.36004629629</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>44323</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>45268.59935185185</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45127</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>46041.58626157408</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45999.48547453704</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>46038.71271990741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>46038.71920138889</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>45580.89116898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>45996.63673611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>45996.6384375</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45996</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>46001</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>45616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>44271.42121527778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44659</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>45021</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>45000.6115625</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44895.73065972222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>46003</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>46043.93358796297</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>45635.54747685185</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>45659.54851851852</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>45539</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>45539.38059027777</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44676.50481481481</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>45331</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44593.51175925926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45736.7427662037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44980.67747685185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44966</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>45042.5203125</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45030.72328703704</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>45601.29311342593</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>46008.45796296297</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>45443.61171296296</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30714,7 +30714,7 @@
         <v>45967</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>45440.67883101852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>44572</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45281</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45700</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>46055.43789351852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>44956</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>44676</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>45761.38829861111</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>45077</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45609.48894675926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45561.6475462963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>45467.89081018518</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>44670</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>44245</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>46014.44479166667</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>45348.58864583333</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>46014.45650462963</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31817,7 +31817,7 @@
         <v>46014.45055555556</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45021.71539351852</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45609</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45542.82987268519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45623.55375</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45989.65238425926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>46058.6259375</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>44951</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45210.61050925926</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>46058.56126157408</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>46058.56858796296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32484,7 +32484,7 @@
         <v>46059.68496527777</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32541,7 +32541,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>45050</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>45010</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>45635.44388888889</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44888</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>45273</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>44722</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>45637.37755787037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>44984</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>44998.37043981482</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         <v>45419</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33173,7 +33173,7 @@
         <v>44593.63974537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44990.91711805556</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45593.41642361111</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>44820</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45743.58699074074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45130.98962962963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45672.56614583333</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>44901.48108796297</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>44427.81496527778</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45741.64815972222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45400.85319444445</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>45560</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>44539</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>44539.62236111111</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44993.45635416666</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45607.81917824074</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>45096</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         <v>44673</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34261,7 +34261,7 @@
         <v>44244</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34318,7 +34318,7 @@
         <v>45006.56870370371</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>45170</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34437,7 +34437,7 @@
         <v>44998.64402777778</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34494,7 +34494,7 @@
         <v>45350.6794212963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34551,7 +34551,7 @@
         <v>44851</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34608,7 +34608,7 @@
         <v>44951</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34665,7 +34665,7 @@
         <v>45631.44207175926</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34722,7 +34722,7 @@
         <v>44994</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34779,7 +34779,7 @@
         <v>45306</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>45118.8353125</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         <v>45504.5934375</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34950,7 +34950,7 @@
         <v>44537</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>45754.46480324074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>45111</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>45163</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44596</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>45439.65954861111</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44244</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44573</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>45635.5587037037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45635.56246527778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35540,7 +35540,7 @@
         <v>45301</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44761.70467592592</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35721,7 +35721,7 @@
         <v>44837</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>45213</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>45736.60597222222</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35949,7 +35949,7 @@
         <v>45434.57641203704</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36006,7 +36006,7 @@
         <v>45370.44461805555</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36063,7 +36063,7 @@
         <v>45434</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>45033.63005787037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36177,7 +36177,7 @@
         <v>44420</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36234,7 +36234,7 @@
         <v>44245</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>44245</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>45246</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         <v>45539.3840162037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45539.38487268519</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>45643.66630787037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36586,7 +36586,7 @@
         <v>44839.59194444444</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36643,7 +36643,7 @@
         <v>45532.68699074074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>45635.55185185185</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36762,7 +36762,7 @@
         <v>45162.36422453704</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36819,7 +36819,7 @@
         <v>45624.3344212963</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>45012</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>45555.59717592593</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>45594</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37047,7 +37047,7 @@
         <v>45210.35119212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37104,7 +37104,7 @@
         <v>45532</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37161,7 +37161,7 @@
         <v>45002.60659722222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37218,7 +37218,7 @@
         <v>45645.51034722223</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37275,7 +37275,7 @@
         <v>45268.61855324074</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>45238</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>45330</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37451,7 +37451,7 @@
         <v>45635</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37508,7 +37508,7 @@
         <v>45109</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37565,7 +37565,7 @@
         <v>45301</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         <v>45709.54873842592</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37679,7 +37679,7 @@
         <v>45397.5500462963</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37736,7 +37736,7 @@
         <v>45632.43230324074</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37793,7 +37793,7 @@
         <v>44670</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37850,7 +37850,7 @@
         <v>45420.64561342593</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37907,7 +37907,7 @@
         <v>44537</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>44902</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>44941.55056712963</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>45712.38268518518</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>45621.79526620371</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>45621.81126157408</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>44831</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>44545.46072916667</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>45685</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>45621.80475694445</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>44889.60872685185</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         <v>45131</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38596,7 +38596,7 @@
         <v>45702</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38653,7 +38653,7 @@
         <v>44714</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38710,7 +38710,7 @@
         <v>45386.40489583334</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38767,7 +38767,7 @@
         <v>44722</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38829,7 +38829,7 @@
         <v>45328</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38886,7 +38886,7 @@
         <v>45498.49946759259</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38943,7 +38943,7 @@
         <v>45202.3074537037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39000,7 +39000,7 @@
         <v>45636.6875</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39057,7 +39057,7 @@
         <v>45036</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39114,7 +39114,7 @@
         <v>45153</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>45300</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39228,7 +39228,7 @@
         <v>45777.63863425926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         <v>45532</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>45119.58324074074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>45780</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>45251.58716435185</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39518,7 +39518,7 @@
         <v>45789</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39575,7 +39575,7 @@
         <v>45300.51512731481</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39632,7 +39632,7 @@
         <v>45789.61872685186</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>45524.94774305556</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>45747.67768518518</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39803,7 +39803,7 @@
         <v>45645</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39860,7 +39860,7 @@
         <v>45547.48450231482</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39917,7 +39917,7 @@
         <v>44539</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39974,7 +39974,7 @@
         <v>45490</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40031,7 +40031,7 @@
         <v>45573</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>45686.3959375</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40145,7 +40145,7 @@
         <v>45469.49901620371</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40202,7 +40202,7 @@
         <v>45330</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40259,7 +40259,7 @@
         <v>45531</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40316,7 +40316,7 @@
         <v>45692.64821759259</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40373,7 +40373,7 @@
         <v>45607.82974537037</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40430,7 +40430,7 @@
         <v>44792.45494212963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40492,7 +40492,7 @@
         <v>45446.61256944444</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40549,7 +40549,7 @@
         <v>45404.45487268519</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40606,7 +40606,7 @@
         <v>45485</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40663,7 +40663,7 @@
         <v>45693</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>

--- a/Översikt ÖREBRO.xlsx
+++ b/Översikt ÖREBRO.xlsx
@@ -575,7 +575,7 @@
         <v>44707</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         <v>45953</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>44522</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>46010.45447916666</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44379</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         <v>44272</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45237</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>45989</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
         <v>45021</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>46038.67769675926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>45840</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45331</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>45604</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>45987</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>45246</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44643.38490740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44753</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         <v>44319</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>45299</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>45736</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>45852.5469212963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>45987.35875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45989</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>45989.65462962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>45215</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
         <v>45412</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>44783</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44593</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>44862.31013888889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45827.59738425926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>45743.58409722222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>45950.83359953704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45609.44461805555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>45539.37905092593</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44244</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>45995.74444444444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>46038.64835648148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
         <v>45387.42296296296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         <v>45387.54642361111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45348</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>45447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44755</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>44237</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         <v>45054</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>45574.59789351852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>44285</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45796.42209490741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45820.69287037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>45835.58074074074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>45835.59478009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>44740</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>45945.41712962963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>44834</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44435</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>45987.35973379629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>46038.65719907408</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>44939</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>46010.46091435185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>46010.45872685185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45112.61451388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>45989.65396990741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>45508</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44958</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>45119</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>45055</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>45447</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>45726</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>45631.50894675926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>45181.49559027778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>45623.58190972222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44251</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44334</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44378.62756944444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>44266.70232638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44274</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44295</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44536</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44537</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44453</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44491</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44509</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44606</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44378.54952546296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>44272.55052083333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44368.65681712963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44830.33280092593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44404</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44687</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44656</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44656</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44676</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44267</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>44285</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44522</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44673</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44886.52833333334</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44614.60990740741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44538</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44805</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44285</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44343.5619212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44534.80712962963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44347</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44461.92744212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44340</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44566</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44386</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44643</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>44511</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         <v>44357.75265046296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>44621</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>44434</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>44706</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44487</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44238</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44505</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44601</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44753</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44764.51827546296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44398</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44522.56349537037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44839</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44685</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44781</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44781</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44693</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44827.3940625</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44655</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>44378</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44648</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>44482</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>44345</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>44345.33282407407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>44311</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>44616.59946759259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>44670</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>44839</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>44498</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44483</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>44868</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44684</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>44348.45107638889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>44592</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44595</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>44638</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45078.48994212963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44983.93344907407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>45739</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>45369</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>45335.4531712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>45635.45157407408</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>44990.88512731482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44990.90357638889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>45257.374375</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44941</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45635.44899305556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45294</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45720</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45609</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45007.43729166667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>44504</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>45769.40133101852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>45642</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>45251</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45542.31359953704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45599.60541666667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45191</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>44539.62481481482</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45030.72627314815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45539.3822337963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>45539.38329861111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>45596</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44852.39063657408</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>44814</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45219</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45386.38728009259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>44796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45665.60148148148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45162.62861111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45239.44811342593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45580.70377314815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45162.61837962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45560</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45331.44145833333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44539.63009259259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45372</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44649.6965162037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>45224.51471064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>45257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>45377</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45235</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14469,7 +14469,7 @@
         <v>45387.46482638889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45803.47803240741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45294.61858796296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45189</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45803.38447916666</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>45609.49157407408</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>45187</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
         <v>45623.61278935185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14930,7 +14930,7 @@
         <v>45642</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14987,7 +14987,7 @@
         <v>45700.66429398148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15044,7 +15044,7 @@
         <v>45888.34467592592</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
         <v>44659.63753472222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44580</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15215,7 +15215,7 @@
         <v>44649</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         <v>45889.70388888889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>45239</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>45581.84538194445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15458,7 +15458,7 @@
         <v>45890.34752314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45812.35736111111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15572,7 +15572,7 @@
         <v>45812.41869212963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45812.42856481481</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44664</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45812.42293981482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>45895.4531712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15857,7 +15857,7 @@
         <v>45895.46060185185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         <v>45593.47466435185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>44746.41938657407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>45664.52034722222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>45818.30459490741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>45229</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>44342</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16266,7 +16266,7 @@
         <v>45575</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>45901.3549537037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>45027.6433912037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>45820.70626157407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45902.36149305556</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>45820.66532407407</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>45609.43180555556</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>45609.44553240741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>45824.5044212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>45258.38157407408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16841,7 +16841,7 @@
         <v>45470</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44347</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>45229</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>45825.55261574074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>45257.40833333333</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>45723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>45824.43502314815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>45681</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>45004</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>44602.48082175926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>45631.43864583333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>45004</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>45013</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44539.61571759259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>44582</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>45429.37775462963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>45831.38224537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>45918.61577546296</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>45831.57280092593</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44942</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>45918.47043981482</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>45434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>45434.57969907407</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>45300.51892361111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>45609.48451388889</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>45635.55555555555</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         <v>45832.8252199074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>45832.43225694444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         <v>45832.83341435185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44811</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44313</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45330</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>45832.84313657408</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>45632</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>45832</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>45609</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44257</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>45685</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44944.64704861111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>45672</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>45835.56965277778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>45835.57407407407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45835.58880787037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>45632</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>45681</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>45331</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>45839</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>45838.36179398148</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>45422</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45754.44658564815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45331</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>44895.71835648148</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45840.6003587963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45553</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45216</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45216.73533564815</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>45373</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44345</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>45935.80164351852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>45342.85280092592</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45247</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>45247</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
         <v>44235</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>45705</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20591,7 +20591,7 @@
         <v>45114</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20653,7 +20653,7 @@
         <v>45397.55104166667</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>45544</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>44342</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>45944</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>45593.49899305555</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>45390.59277777778</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44595.3353587963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
         <v>45948.450625</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21114,7 +21114,7 @@
         <v>45852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
         <v>45162.35502314815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21228,7 +21228,7 @@
         <v>45948.45704861111</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         <v>45258</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21342,7 +21342,7 @@
         <v>45820</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21399,7 +21399,7 @@
         <v>45040</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>45859.46859953704</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45597.37265046296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45952.84231481481</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45952.49476851852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45510.65754629629</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>45952.49300925926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>45952.51270833334</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>45622.42097222222</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45869.41929398148</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>45869.41387731482</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>44609</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>45488.48340277778</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>45831</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>45771.7062037037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>45953.9559837963</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45702</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>45959.6444675926</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44671</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>45098</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>45386.83142361111</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>45825</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22740,7 +22740,7 @@
         <v>45959.63440972222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>45959.41769675926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>45959.43827546296</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45748</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>45030.72472222222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>45694.57181712963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>45219</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>45959.42025462963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>45635.56321759259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>45960.61763888889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23325,7 +23325,7 @@
         <v>45960.62042824074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45334.49104166667</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45964.58512731481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45965.59295138889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>45119.59789351852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>45069</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23677,7 +23677,7 @@
         <v>44944.39105324074</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         <v>45331.4187962963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>45229</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44990.89752314815</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23905,7 +23905,7 @@
         <v>45715.63409722222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>45882.42570601852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>45330</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>45972.57893518519</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>45562.41854166667</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>45972.58171296296</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>45973.37163194444</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>44734</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>45672</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24423,7 +24423,7 @@
         <v>45973.36508101852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44539</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45589.66474537037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>45560</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>46021.4546412037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>46021.45914351852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24770,7 +24770,7 @@
         <v>45763.43422453704</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24827,7 +24827,7 @@
         <v>45131</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24884,7 +24884,7 @@
         <v>45162</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24941,7 +24941,7 @@
         <v>45432</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24998,7 +24998,7 @@
         <v>45980.6446875</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25055,7 +25055,7 @@
         <v>45013.34895833334</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25112,7 +25112,7 @@
         <v>45229</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25169,7 +25169,7 @@
         <v>45012</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25226,7 +25226,7 @@
         <v>44586.46921296296</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25283,7 +25283,7 @@
         <v>45539.38146990741</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>45985.38037037037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45609.58422453704</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44244</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>45743.5853125</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>45390.38626157407</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>45987.35519675926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>44958</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44807.49150462963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45986.40208333333</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45077.41672453703</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>45265</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>45989.30467592592</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>45636.68505787037</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>45989.30920138889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44987</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>45114</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26277,7 +26277,7 @@
         <v>45027</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26334,7 +26334,7 @@
         <v>45988.52015046297</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26391,7 +26391,7 @@
         <v>46031.30899305556</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26448,7 +26448,7 @@
         <v>45165</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>44861</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>45359.37298611111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>45992.75820601852</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45993.42108796296</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>45530</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44245</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45194.49594907407</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>45992.74891203704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>45992.78351851852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>45120</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45992.76758101852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>45992.7803125</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>45993.41934027777</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44750</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27303,7 +27303,7 @@
         <v>44750</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27360,7 +27360,7 @@
         <v>45393.46980324074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27417,7 +27417,7 @@
         <v>44956.6655787037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27474,7 +27474,7 @@
         <v>45995</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27531,7 +27531,7 @@
         <v>45230.47266203703</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45197.72777777778</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>44972.7762962963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27707,7 +27707,7 @@
         <v>45995.72620370371</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27764,7 +27764,7 @@
         <v>46036.43479166667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27821,7 +27821,7 @@
         <v>45580.91502314815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>45995.55927083334</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44897</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>45995.73722222223</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>46038.6202662037</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28121,7 +28121,7 @@
         <v>45708</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28178,7 +28178,7 @@
         <v>45348</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>45632</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>44539</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>44539</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28406,7 +28406,7 @@
         <v>44539</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>46038.73467592592</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45996.64050925926</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>46041.36004629629</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>44323</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28711,7 +28711,7 @@
         <v>45268.59935185185</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45127</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28835,7 +28835,7 @@
         <v>46041.58626157408</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28897,7 +28897,7 @@
         <v>45999.48547453704</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28954,7 +28954,7 @@
         <v>46038.71271990741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29016,7 +29016,7 @@
         <v>46038.71920138889</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>45580.89116898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29140,7 +29140,7 @@
         <v>45996.63673611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>45996.6384375</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45996</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>46001</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>45616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>44271.42121527778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>44659</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>45021</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29606,7 +29606,7 @@
         <v>45000.6115625</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44895.73065972222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>46003</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>46043.93358796297</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>45635.54747685185</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         <v>45659.54851851852</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29963,7 +29963,7 @@
         <v>45539</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>45539.38059027777</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44676.50481481481</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>45331</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44593.51175925926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>45736.7427662037</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44980.67747685185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44966</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>45042.5203125</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45030.72328703704</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>45601.29311342593</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>46008.45796296297</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>45443.61171296296</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30714,7 +30714,7 @@
         <v>45967</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45292</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>45440.67883101852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>44572</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>45281</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45700</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>46055.43789351852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>44956</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>44676</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31237,7 +31237,7 @@
         <v>45761.38829861111</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
         <v>45077</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31351,7 +31351,7 @@
         <v>45609.48894675926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
         <v>45561.6475462963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>45467.89081018518</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
         <v>44670</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>44245</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
         <v>46014.44479166667</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>45348.58864583333</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>46014.45650462963</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31817,7 +31817,7 @@
         <v>46014.45055555556</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45021.71539351852</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45609</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45542.82987268519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45623.55375</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45989.65238425926</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>46058.6259375</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32241,7 +32241,7 @@
         <v>44951</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32298,7 +32298,7 @@
         <v>45210.61050925926</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32360,7 +32360,7 @@
         <v>46058.56126157408</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>46058.56858796296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32484,7 +32484,7 @@
         <v>46059.68496527777</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32541,7 +32541,7 @@
         <v>44834</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>45050</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>45010</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>45635.44388888889</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44888</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>45273</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>44722</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>45637.37755787037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>44984</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>44998.37043981482</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         <v>45419</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33173,7 +33173,7 @@
         <v>44593.63974537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33230,7 +33230,7 @@
         <v>44990.91711805556</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>45593.41642361111</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>44820</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>45743.58699074074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45130.98962962963</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45672.56614583333</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>44901.48108796297</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
         <v>44427.81496527778</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33691,7 +33691,7 @@
         <v>45741.64815972222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
         <v>45400.85319444445</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33805,7 +33805,7 @@
         <v>45560</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>44539</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33919,7 +33919,7 @@
         <v>44539.62236111111</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>44944</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44993.45635416666</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>45607.81917824074</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>45096</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         <v>44673</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34261,7 +34261,7 @@
         <v>44244</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34318,7 +34318,7 @@
         <v>45006.56870370371</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>45170</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34437,7 +34437,7 @@
         <v>44998.64402777778</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34494,7 +34494,7 @@
         <v>45350.6794212963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34551,7 +34551,7 @@
         <v>44851</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34608,7 +34608,7 @@
         <v>44951</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34665,7 +34665,7 @@
         <v>45631.44207175926</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34722,7 +34722,7 @@
         <v>44994</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34779,7 +34779,7 @@
         <v>45306</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>45118.8353125</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         <v>45504.5934375</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34950,7 +34950,7 @@
         <v>44537</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>45754.46480324074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>45111</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>45163</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44596</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>45439.65954861111</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44244</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44573</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>45635.5587037037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45635.56246527778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35540,7 +35540,7 @@
         <v>45301</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44761.70467592592</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         <v>45135</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35721,7 +35721,7 @@
         <v>44837</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>45213</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44802</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>45736.60597222222</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35949,7 +35949,7 @@
         <v>45434.57641203704</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36006,7 +36006,7 @@
         <v>45370.44461805555</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36063,7 +36063,7 @@
         <v>45434</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>45033.63005787037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36177,7 +36177,7 @@
         <v>44420</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36234,7 +36234,7 @@
         <v>44245</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>44245</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>45246</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         <v>45539.3840162037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45539.38487268519</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>45643.66630787037</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36586,7 +36586,7 @@
         <v>44839.59194444444</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36643,7 +36643,7 @@
         <v>45532.68699074074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>45635.55185185185</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36762,7 +36762,7 @@
         <v>45162.36422453704</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36819,7 +36819,7 @@
         <v>45624.3344212963</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>45012</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>45555.59717592593</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>45594</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37047,7 +37047,7 @@
         <v>45210.35119212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37104,7 +37104,7 @@
         <v>45532</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37161,7 +37161,7 @@
         <v>45002.60659722222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37218,7 +37218,7 @@
         <v>45645.51034722223</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37275,7 +37275,7 @@
         <v>45268.61855324074</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>45238</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>45330</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37451,7 +37451,7 @@
         <v>45635</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37508,7 +37508,7 @@
         <v>45109</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37565,7 +37565,7 @@
         <v>45301</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         <v>45709.54873842592</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37679,7 +37679,7 @@
         <v>45397.5500462963</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37736,7 +37736,7 @@
         <v>45632.43230324074</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37793,7 +37793,7 @@
         <v>44670</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37850,7 +37850,7 @@
         <v>45420.64561342593</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37907,7 +37907,7 @@
         <v>44537</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37964,7 +37964,7 @@
         <v>44902</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38021,7 +38021,7 @@
         <v>44941.55056712963</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38078,7 +38078,7 @@
         <v>45712.38268518518</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38135,7 +38135,7 @@
         <v>45621.79526620371</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38192,7 +38192,7 @@
         <v>45621.81126157408</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38249,7 +38249,7 @@
         <v>44831</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         <v>44545.46072916667</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>45685</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38420,7 +38420,7 @@
         <v>45621.80475694445</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38477,7 +38477,7 @@
         <v>44889.60872685185</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         <v>45131</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38596,7 +38596,7 @@
         <v>45702</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38653,7 +38653,7 @@
         <v>44714</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38710,7 +38710,7 @@
         <v>45386.40489583334</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38767,7 +38767,7 @@
         <v>44722</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38829,7 +38829,7 @@
         <v>45328</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38886,7 +38886,7 @@
         <v>45498.49946759259</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38943,7 +38943,7 @@
         <v>45202.3074537037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39000,7 +39000,7 @@
         <v>45636.6875</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39057,7 +39057,7 @@
         <v>45036</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39114,7 +39114,7 @@
         <v>45153</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39171,7 +39171,7 @@
         <v>45300</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39228,7 +39228,7 @@
         <v>45777.63863425926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         <v>45532</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39342,7 +39342,7 @@
         <v>45119.58324074074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39399,7 +39399,7 @@
         <v>45780</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39456,7 +39456,7 @@
         <v>45251.58716435185</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39518,7 +39518,7 @@
         <v>45789</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39575,7 +39575,7 @@
         <v>45300.51512731481</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39632,7 +39632,7 @@
         <v>45789.61872685186</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>45524.94774305556</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         <v>45747.67768518518</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39803,7 +39803,7 @@
         <v>45645</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39860,7 +39860,7 @@
         <v>45547.48450231482</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39917,7 +39917,7 @@
         <v>44539</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39974,7 +39974,7 @@
         <v>45490</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40031,7 +40031,7 @@
         <v>45573</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40088,7 +40088,7 @@
         <v>45686.3959375</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40145,7 +40145,7 @@
         <v>45469.49901620371</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40202,7 +40202,7 @@
         <v>45330</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40259,7 +40259,7 @@
         <v>45531</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40316,7 +40316,7 @@
         <v>45692.64821759259</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40373,7 +40373,7 @@
         <v>45607.82974537037</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40430,7 +40430,7 @@
         <v>44792.45494212963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40492,7 +40492,7 @@
         <v>45446.61256944444</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40549,7 +40549,7 @@
         <v>45404.45487268519</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40606,7 +40606,7 @@
         <v>45485</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40663,7 +40663,7 @@
         <v>45693</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
